--- a/biology/Zoologie/Camachoaglaja/Camachoaglaja.xlsx
+++ b/biology/Zoologie/Camachoaglaja/Camachoaglaja.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Camachoaglaja est un genre de gastéropodes (limaces de mer) de la famille des Aglajidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Camachoaglaja a été créé en 2017 par Andrea Zamora-Silva (d) et Manuel António E. Malaquias (d) avec, pour espèce type, Camachoaglaja africana[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Camachoaglaja a été créé en 2017 par Andrea Zamora-Silva (d) et Manuel António E. Malaquias (d) avec, pour espèce type, Camachoaglaja africana.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (26 juin 2021)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (26 juin 2021) :
 Camachoaglaja africana (Pruvot-Fol, 1953)
 Camachoaglaja berolina (Er. Marcus &amp; Ev. Marcus, 1970)
 Camachoaglaja binter Ortea &amp; Moro, 2018
@@ -581,9 +597,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom du genre Camachoaglaja, xxxxi, lui a été donnée en l'honneur de Yolanda Camacho-García en remerciement de ses études sur la phylogénie des gastéropodes de la famille des Aglajidae et pour avoir été la première à révéler l'existence de ce clade d'espèces exclusivement atlantiques[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom du genre Camachoaglaja, xxxxi, lui a été donnée en l'honneur de Yolanda Camacho-García en remerciement de ses études sur la phylogénie des gastéropodes de la famille des Aglajidae et pour avoir été la première à révéler l'existence de ce clade d'espèces exclusivement atlantiques.
 </t>
         </is>
       </c>
@@ -612,7 +630,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(en) Andrea Zamora-Silva et Manuel António E. Malaquias, « Molecular phylogeny of the Aglajidae head-shield sea slugs (Heterobranchia: Cephalaspidea): new evolutionary lineages revealed and proposal of a new classification », Zoological Journal of the Linnean Society, Linnean Society of London et OUP, vol. 183, no 1,‎ 1er novembre 2017, p. 1-51 (ISSN 1096-3642 et 0024-4082, OCLC 01799617, DOI 10.1093/ZOOLINNEAN/ZLX064, lire en ligne)</t>
         </is>
